--- a/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/examples/oucru/oucru-32dx/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-32dx/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93489A48-176A-D74C-963D-4C12A578F258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53908843-2033-9E49-8293-ED056A2C1032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIS" sheetId="1" r:id="rId1"/>
@@ -2825,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -4443,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4561,7 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5554,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>694</v>
@@ -8110,7 +8110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>

--- a/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-32dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29F8B4-73D7-4690-B852-600E609F660E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBC110-5B22-4F76-B459-D87E8CE4DBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIS" sheetId="1" r:id="rId1"/>
@@ -2403,9 +2403,6 @@
     <t>{0: 'Not Dengue', 1: 'Lab-confirmed Dengue', 2: 'Presumptive Dengue', 3: 'Acute Flavivirus', 4: 'Recent Flavivirus', 5: 'Inconclusive', 6: 'Other Inconclusive'}</t>
   </si>
   <si>
-    <t>{0: 'Inconclusive', 1: 'Probable primary', 2: 'Probable Secondary'}</t>
-  </si>
-  <si>
     <t>Category Code</t>
   </si>
   <si>
@@ -2464,6 +2461,9 @@
   </si>
   <si>
     <t>No date of illness so fever as onset!</t>
+  </si>
+  <si>
+    <t>{0: 'Inconclusive', 1: 'Primary', 2: 'Secondary'}</t>
   </si>
 </sst>
 </file>
@@ -2881,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
+        <v>808</v>
+      </c>
+      <c r="K22" t="s">
         <v>809</v>
-      </c>
-      <c r="K22" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,7 +4507,7 @@
         <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="E16" t="s">
         <v>773</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C2" t="s">
         <v>139</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C4" t="s">
         <v>141</v>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C6" t="s">
         <v>139</v>
@@ -4710,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5299,13 +5299,13 @@
         <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C33" t="s">
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5322,7 +5322,7 @@
         <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C34" t="s">
         <v>141</v>
@@ -10493,7 +10493,7 @@
         <v>454</v>
       </c>
       <c r="I139" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -10516,7 +10516,7 @@
         <v>429</v>
       </c>
       <c r="I140" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">

--- a/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-32dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBC110-5B22-4F76-B459-D87E8CE4DBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01503CA5-00A0-4D90-9DCC-306E4D213EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26055" yWindow="1230" windowWidth="20325" windowHeight="16470" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="813">
   <si>
     <t>from_name</t>
   </si>
@@ -315,9 +315,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>pregnant</t>
   </si>
   <si>
@@ -954,9 +951,6 @@
     <t>studyday</t>
   </si>
   <si>
-    <t>is_fever</t>
-  </si>
-  <si>
     <t>chill_time</t>
   </si>
   <si>
@@ -2464,6 +2458,18 @@
   </si>
   <si>
     <t>{0: 'Inconclusive', 1: 'Primary', 2: 'Secondary'}</t>
+  </si>
+  <si>
+    <t>comorbidities</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>liver_palpation_size</t>
+  </si>
+  <si>
+    <t>spleen_palpation_size</t>
   </si>
 </sst>
 </file>
@@ -2487,12 +2493,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2533,7 +2545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2541,6 +2553,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2881,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2942,7 +2955,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2956,7 +2969,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2970,7 +2983,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
@@ -2979,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2990,10 +3003,10 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>74</v>
@@ -3010,7 +3023,10 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3024,7 +3040,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3038,7 +3057,10 @@
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3052,7 +3074,7 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -3066,7 +3088,7 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3080,10 +3102,10 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -3100,10 +3122,10 @@
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -3120,10 +3142,10 @@
         <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -3140,10 +3162,10 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -3160,10 +3182,10 @@
         <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -3180,10 +3202,10 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -3200,10 +3222,10 @@
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -3220,10 +3242,10 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -3240,10 +3262,13 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3254,10 +3279,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>809</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3268,13 +3296,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -3288,19 +3316,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3308,10 +3336,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3322,16 +3350,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
         <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -3342,10 +3370,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -3356,16 +3384,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -3376,10 +3404,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3390,16 +3418,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3410,10 +3438,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -3424,16 +3452,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
         <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3444,10 +3472,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -3458,13 +3486,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3475,16 +3503,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
         <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -3495,10 +3523,10 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -3509,16 +3537,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" t="s">
-        <v>110</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3529,10 +3557,10 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -3543,13 +3571,13 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3560,16 +3588,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
         <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>113</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3580,10 +3608,10 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -3594,16 +3622,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3614,10 +3642,10 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -3628,16 +3656,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3648,10 +3676,10 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -3662,13 +3690,13 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3679,16 +3707,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
         <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" t="s">
-        <v>120</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3699,10 +3727,10 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -3713,13 +3741,13 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3730,16 +3758,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
         <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" t="s">
-        <v>123</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3750,10 +3778,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -3764,13 +3792,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3781,16 +3809,16 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3801,10 +3829,10 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -3815,16 +3843,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
         <v>127</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" t="s">
-        <v>128</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3835,10 +3863,10 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -3849,16 +3877,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" t="s">
         <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" t="s">
-        <v>130</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3869,10 +3897,10 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -3883,10 +3911,13 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3897,16 +3928,16 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" t="s">
         <v>132</v>
-      </c>
-      <c r="C58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" t="s">
-        <v>133</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3917,10 +3948,10 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -3931,10 +3962,13 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3945,13 +3979,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3962,10 +3996,10 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3976,13 +4010,13 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3993,10 +4027,10 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
         <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -4010,10 +4044,10 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -4027,7 +4061,7 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -4039,7 +4073,7 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4050,7 +4084,7 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -4062,7 +4096,7 @@
         <v>31</v>
       </c>
       <c r="I67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4125,16 +4159,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4148,10 +4182,10 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4159,16 +4193,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4176,16 +4210,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4199,10 +4233,10 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4217,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4275,7 +4309,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4283,16 +4317,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4300,13 +4334,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4314,16 +4348,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4331,16 +4365,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4348,16 +4382,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4365,16 +4399,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4382,13 +4416,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -4396,16 +4430,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4413,16 +4447,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4430,13 +4464,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -4444,16 +4478,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4461,16 +4495,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B14" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4478,19 +4512,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B15" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4498,19 +4532,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>808</v>
+      </c>
+      <c r="E16" t="s">
         <v>771</v>
-      </c>
-      <c r="B16" t="s">
-        <v>771</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>810</v>
-      </c>
-      <c r="E16" t="s">
-        <v>773</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4524,10 +4558,10 @@
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4542,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4580,13 +4614,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4594,13 +4628,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4608,16 +4642,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4625,13 +4659,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4639,13 +4673,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4660,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,7 +4704,7 @@
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4710,7 +4744,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4735,7 +4769,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4749,7 +4783,7 @@
         <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4763,7 +4797,7 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4771,33 +4805,33 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4805,13 +4839,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
@@ -4820,18 +4854,18 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
@@ -4840,18 +4874,18 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
@@ -4860,18 +4894,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -4880,18 +4914,18 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -4900,18 +4934,18 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -4920,21 +4954,21 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -4945,13 +4979,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -4962,16 +4996,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -4982,16 +5016,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -5002,16 +5036,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -5022,16 +5056,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -5042,16 +5076,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -5062,16 +5096,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -5082,16 +5116,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -5102,16 +5136,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -5122,16 +5156,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -5142,16 +5176,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -5162,16 +5196,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -5182,16 +5216,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -5202,16 +5236,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -5222,16 +5256,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -5242,16 +5276,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -5262,16 +5296,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -5282,13 +5316,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -5296,16 +5333,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
         <v>803</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>805</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
@@ -5314,38 +5351,41 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" t="s">
-        <v>804</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>635</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
@@ -5356,16 +5396,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -5376,16 +5416,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -5396,16 +5436,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -5416,16 +5456,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -5436,16 +5476,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -5456,16 +5496,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
@@ -5476,13 +5516,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>811</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -5490,19 +5530,22 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
+      <c r="J42" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
@@ -5513,13 +5556,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>812</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
@@ -5527,19 +5570,22 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
+      <c r="J44" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -5550,16 +5596,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
@@ -5570,16 +5616,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
@@ -5590,13 +5636,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -5607,13 +5653,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -5627,10 +5673,10 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -5644,7 +5690,7 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -5656,18 +5702,18 @@
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -5676,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5688,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,7 +5792,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5760,7 +5806,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5768,13 +5814,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5782,13 +5828,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5796,13 +5842,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5810,13 +5856,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5824,13 +5873,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5838,13 +5890,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5852,16 +5904,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5869,119 +5921,119 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5992,10 +6044,10 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -6003,13 +6055,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6020,16 +6072,16 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -6037,13 +6089,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -6051,13 +6103,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6068,16 +6120,16 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -6085,13 +6137,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -6099,13 +6151,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6116,16 +6168,16 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6136,13 +6188,13 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6153,10 +6205,10 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -6164,13 +6216,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6181,16 +6233,16 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6201,10 +6253,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -6212,13 +6264,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6229,16 +6281,16 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6249,10 +6301,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -6260,13 +6312,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6274,19 +6326,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6294,16 +6346,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6311,13 +6363,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -6325,13 +6377,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6342,16 +6394,16 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6362,13 +6414,13 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6379,10 +6431,10 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -6390,13 +6442,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6404,19 +6456,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6424,16 +6476,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6441,13 +6493,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -6455,13 +6507,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6472,16 +6524,16 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6492,13 +6544,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6509,10 +6561,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -6520,13 +6572,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6534,19 +6586,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6554,13 +6606,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -6568,13 +6620,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -6582,19 +6634,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6602,13 +6654,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -6616,13 +6668,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -6630,19 +6682,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6650,13 +6702,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>300</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -6664,19 +6719,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -6684,19 +6739,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6704,16 +6759,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6721,19 +6776,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -6741,19 +6796,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6761,19 +6816,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6781,19 +6836,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6801,19 +6856,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -6821,19 +6876,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -6841,19 +6896,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -6861,19 +6916,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -6881,19 +6936,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -6901,19 +6956,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -6921,19 +6976,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -6941,19 +6996,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -6961,16 +7016,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -6978,19 +7033,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -6998,16 +7053,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7015,19 +7070,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7035,19 +7090,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7055,19 +7110,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7075,19 +7130,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7095,19 +7150,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7115,19 +7170,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7135,16 +7190,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7152,16 +7207,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7169,16 +7224,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7186,16 +7241,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7203,16 +7258,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7220,16 +7275,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -7237,16 +7292,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -7254,16 +7309,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -7271,16 +7326,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -7288,13 +7343,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -7302,16 +7357,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -7325,10 +7380,10 @@
         <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -7336,33 +7391,33 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="s">
+        <v>277</v>
+      </c>
+      <c r="H95" t="s">
         <v>278</v>
-      </c>
-      <c r="H95" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -7371,58 +7426,58 @@
         <v>49</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" t="s">
         <v>266</v>
-      </c>
-      <c r="H97" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="G98" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" t="s">
         <v>271</v>
-      </c>
-      <c r="H98" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -7431,38 +7486,38 @@
         <v>33</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" t="s">
         <v>275</v>
-      </c>
-      <c r="H100" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -7471,18 +7526,18 @@
         <v>39</v>
       </c>
       <c r="H101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -7491,18 +7546,18 @@
         <v>57</v>
       </c>
       <c r="H102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -7511,18 +7566,18 @@
         <v>42</v>
       </c>
       <c r="H103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -7531,67 +7586,67 @@
         <v>51</v>
       </c>
       <c r="H104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
       <c r="G105" t="s">
+        <v>242</v>
+      </c>
+      <c r="H105" t="s">
         <v>243</v>
-      </c>
-      <c r="H105" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" t="s">
         <v>257</v>
-      </c>
-      <c r="H106" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="s">
+        <v>258</v>
+      </c>
+      <c r="H107" t="s">
         <v>259</v>
-      </c>
-      <c r="H107" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7668,7 @@
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -7661,7 +7716,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7675,7 +7730,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7683,13 +7738,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -7697,13 +7752,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7711,13 +7766,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7725,19 +7780,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7745,33 +7800,33 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -7779,13 +7834,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7793,19 +7848,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7813,19 +7868,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7833,19 +7888,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7853,19 +7908,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -7873,19 +7928,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7896,16 +7951,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7913,19 +7968,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -7933,19 +7988,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -7953,16 +8008,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7970,19 +8025,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7990,16 +8045,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8007,19 +8062,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8027,16 +8082,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8044,19 +8099,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8064,19 +8119,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -8084,19 +8139,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -8104,16 +8159,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -8121,19 +8176,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -8141,16 +8196,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -8158,19 +8213,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
         <v>384</v>
       </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>386</v>
-      </c>
       <c r="E30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -8178,16 +8233,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
         <v>358</v>
-      </c>
-      <c r="B31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" t="s">
-        <v>360</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8201,10 +8256,10 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8212,45 +8267,45 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +8375,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8334,7 +8389,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8342,16 +8397,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -8359,13 +8414,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -8373,13 +8428,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -8387,13 +8442,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -8401,13 +8456,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -8415,16 +8470,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -8432,16 +8487,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -8449,16 +8504,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -8466,16 +8521,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -8483,16 +8538,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -8500,13 +8555,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -8514,13 +8569,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8528,13 +8583,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -8542,16 +8597,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -8559,13 +8614,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -8573,13 +8628,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8587,13 +8642,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -8601,16 +8656,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8618,16 +8673,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8635,13 +8690,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -8649,16 +8704,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8666,16 +8721,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -8683,16 +8738,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -8700,16 +8755,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -8717,16 +8772,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -8734,16 +8789,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -8751,13 +8806,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -8765,16 +8820,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -8782,16 +8837,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -8799,13 +8854,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -8813,13 +8868,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -8827,13 +8882,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B35" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -8841,13 +8896,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -8855,13 +8910,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -8869,13 +8924,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -8883,13 +8938,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -8897,16 +8952,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -8914,16 +8969,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -8931,13 +8986,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -8945,13 +9000,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -8959,13 +9014,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -8973,13 +9028,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -8987,13 +9042,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -9001,13 +9056,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -9015,13 +9070,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -9029,13 +9084,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -9043,13 +9098,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -9057,13 +9112,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -9071,13 +9126,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -9085,13 +9140,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -9099,16 +9154,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -9116,16 +9171,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -9133,16 +9188,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -9150,16 +9205,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -9167,16 +9222,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -9184,16 +9239,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -9201,16 +9256,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -9218,16 +9273,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -9235,16 +9290,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -9252,16 +9307,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -9269,16 +9324,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -9286,13 +9341,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -9300,16 +9355,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -9317,13 +9372,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -9331,13 +9386,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -9345,16 +9400,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -9362,13 +9417,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -9376,16 +9431,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -9393,16 +9448,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -9410,16 +9465,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -9427,16 +9482,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -9444,16 +9499,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -9461,16 +9516,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -9478,16 +9533,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -9495,16 +9550,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -9512,13 +9567,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -9526,16 +9581,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -9543,13 +9598,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -9557,13 +9612,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C82" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -9571,13 +9626,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -9585,13 +9640,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B84" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -9599,13 +9654,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -9613,13 +9668,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -9627,13 +9682,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -9641,16 +9696,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B88" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -9658,16 +9713,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -9675,13 +9730,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -9689,13 +9744,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B91" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -9703,13 +9758,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -9717,13 +9772,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B93" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -9731,13 +9786,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B94" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -9745,13 +9800,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B95" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -9759,13 +9814,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -9773,13 +9828,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B97" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -9787,13 +9842,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B98" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -9801,13 +9856,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B99" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -9815,16 +9870,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B100" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D100" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -9832,16 +9887,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B101" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -9849,16 +9904,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B102" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -9866,16 +9921,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B103" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -9883,16 +9938,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B104" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -9900,16 +9955,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B105" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -9917,16 +9972,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B106" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -9934,13 +9989,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B107" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -9948,13 +10003,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B108" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -9962,13 +10017,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B109" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -9976,13 +10031,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B110" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -9990,16 +10045,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B111" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -10007,16 +10062,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B112" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -10024,16 +10079,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -10041,16 +10096,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B114" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -10058,16 +10113,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -10075,16 +10130,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B116" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -10092,16 +10147,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B117" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -10109,16 +10164,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B118" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -10126,16 +10181,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -10143,13 +10198,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B120" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -10157,16 +10212,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B121" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D121" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -10174,13 +10229,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -10188,13 +10243,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B123" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -10202,13 +10257,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -10216,13 +10271,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B125" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -10230,16 +10285,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B126" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -10247,16 +10302,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -10264,13 +10319,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B128" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -10278,16 +10333,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B129" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -10295,16 +10350,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B130" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -10318,10 +10373,10 @@
         <v>73</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -10329,274 +10384,274 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B132" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H132" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B133" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H133" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B134" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H134" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I134" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H135" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I135" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B136" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H136" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B137" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H137" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B138" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H138" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B139" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H139" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I139" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B140" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H140" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I140" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B141" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H141" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B142" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H142" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B143" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H143" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H144" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -10657,7 +10712,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -10671,7 +10726,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -10679,13 +10734,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -10693,13 +10748,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -10707,13 +10762,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -10721,282 +10776,282 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B16" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B19" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
         <v>674</v>
       </c>
-      <c r="B19" t="s">
-        <v>687</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" t="s">
-        <v>676</v>
-      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -11007,7 +11062,7 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -11015,25 +11070,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -11103,7 +11158,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -11117,7 +11172,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -11125,16 +11180,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -11142,13 +11197,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -11156,16 +11211,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -11173,16 +11228,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -11190,16 +11245,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11207,16 +11262,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -11224,16 +11279,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -11241,16 +11296,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -11258,16 +11313,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -11275,16 +11330,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -11292,16 +11347,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -11309,16 +11364,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -11326,16 +11381,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -11343,16 +11398,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -11360,16 +11415,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -11377,16 +11432,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B19" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -11394,16 +11449,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -11411,16 +11466,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -11428,13 +11483,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -11448,10 +11503,10 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -11467,7 +11522,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11518,16 +11573,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -11541,7 +11596,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -11549,36 +11604,36 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
         <v>737</v>
       </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>739</v>
-      </c>
       <c r="E5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -11586,25 +11641,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>738</v>
+      </c>
+      <c r="E6" t="s">
         <v>734</v>
       </c>
-      <c r="B6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>740</v>
-      </c>
-      <c r="E6" t="s">
-        <v>736</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11615,10 +11670,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -11691,7 +11746,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -11699,13 +11754,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -11713,56 +11768,56 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -11770,39 +11825,39 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" t="s">
         <v>748</v>
-      </c>
-      <c r="B8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>755</v>
-      </c>
-      <c r="E8" t="s">
-        <v>750</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -11816,10 +11871,10 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
+++ b/examples/oucru/oucru-32dx/resources/outputs/templates/ccfgs_32dx_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-32dx\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01503CA5-00A0-4D90-9DCC-306E4D213EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51F54E-720B-46AF-B20C-C62688C4BCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26055" yWindow="1230" windowWidth="20325" windowHeight="16470" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="813">
   <si>
     <t>from_name</t>
   </si>
@@ -4576,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5734,13 +5734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
@@ -7350,6 +7350,9 @@
       </c>
       <c r="C92" t="s">
         <v>140</v>
+      </c>
+      <c r="E92" t="s">
+        <v>300</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
